--- a/biology/Zoologie/Chironomus_aquisextanus/Chironomus_aquisextanus.xlsx
+++ b/biology/Zoologie/Chironomus_aquisextanus/Chironomus_aquisextanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chironomus aquisextanus est une espèce fossile de diptère nématocère de la famille des Chironomidae, de la sous-famille des Chironominae, de la tribu des Chironomini et du genre Chironomus. 
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chironomus aquisextanus (exactement Chironomus aquisextannus) est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1]. 
-Fossiles
-Cet holotype A11, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection de l'Institut géologique de Lyon[note 1] et vient du gypse d'Aix-en-Provence. Cet holotype est complété par un autre échantillon A 103 (femelle)[2].
-Étymologie
-L'épithète spécifique Aquisextanus fait référence à la racine latine de la commune d'Aix-en-Provence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chironomus aquisextanus (exactement Chironomus aquisextannus) est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981). 
 </t>
         </is>
       </c>
@@ -543,19 +553,170 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype A11, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) faisait partie de la collection de l'Institut géologique de Lyon[note 1] et vient du gypse d'Aix-en-Provence. Cet holotype est complété par un autre échantillon A 103 (femelle).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique Aquisextanus fait référence à la racine latine de la commune d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 2] : 
-« Insecte au corps noirâtre, ailes claires ne dépassant pas l'extrémité de l'abdomen. Tête petite, inclinée sous le thorax, œil à facettes encore visibles. 2 antennes pluriarticulées, poils longs, couchés le long des articles, antennes aussi longues que le thorax. Ce denier renflé, plus haut que long. Abdomen cylindrique, grêle, tergites noirs, sternites bruns. Pattes grêles, finement velues. Ailes ne montrant plus que les nervures antérieures C, Sc, R, Rs.[2] »
-Dimensions
-La longueur totale du corps est de 5 mm ; antennes 1 mm ; thorax 1,3 mm ; abdomen 3,5 mm ; aile 3 mm[2].
-Affinités
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte au corps noirâtre, ailes claires ne dépassant pas l'extrémité de l'abdomen. Tête petite, inclinée sous le thorax, œil à facettes encore visibles. 2 antennes pluriarticulées, poils longs, couchés le long des articles, antennes aussi longues que le thorax. Ce denier renflé, plus haut que long. Abdomen cylindrique, grêle, tergites noirs, sternites bruns. Pattes grêles, finement velues. Ailes ne montrant plus que les nervures antérieures C, Sc, R, Rs. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 5 mm ; antennes 1 mm ; thorax 1,3 mm ; abdomen 3,5 mm ; aile 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chironomus_aquisextanus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Il s'agit certainement d'un Chironomidae ; mais en l'absence de la nervation de l'aile, il ne peut être affirmé avec certitude si l'on se trouve en présence d'un Chironomini. Les Tanypodini se distinguent des Chironomini par la présence d'une nervure transversale M Cu. Sur cette plaque se trouvent huit exemplaires. 
-L'échantillon A103 (pl. XXII, fig 21), représente une ♀ appartenant sans doute à la même espèce.[3]. »
+L'échantillon A103 (pl. XXII, fig 21), représente une ♀ appartenant sans doute à la même espèce.. »
 </t>
         </is>
       </c>
